--- a/data/pca/factorExposure/factorExposure_2011-06-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.01504950878871909</v>
+        <v>-0.01421620339817091</v>
       </c>
       <c r="C2">
-        <v>-0.006368183701148878</v>
+        <v>0.0005214972937887174</v>
       </c>
       <c r="D2">
-        <v>-0.05760814408492646</v>
+        <v>0.005798441751704918</v>
       </c>
       <c r="E2">
-        <v>-0.02267885911571493</v>
+        <v>-0.04349927552918811</v>
       </c>
       <c r="F2">
-        <v>-0.03484338894390227</v>
+        <v>0.0002416109322842481</v>
       </c>
       <c r="G2">
-        <v>-0.01126282444298122</v>
+        <v>-0.02823974350666163</v>
       </c>
       <c r="H2">
-        <v>0.01104032764285531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02261819697637932</v>
+      </c>
+      <c r="I2">
+        <v>0.003745543649659767</v>
+      </c>
+      <c r="J2">
+        <v>0.03683707913949501</v>
+      </c>
+      <c r="K2">
+        <v>0.04066080320079963</v>
+      </c>
+      <c r="L2">
+        <v>0.03492445721890188</v>
+      </c>
+      <c r="M2">
+        <v>-0.0005571812822514252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.0794658751888858</v>
+        <v>-0.1097526003920226</v>
       </c>
       <c r="C4">
-        <v>0.05402898693506144</v>
+        <v>0.07892173701343373</v>
       </c>
       <c r="D4">
-        <v>-0.03151390142596285</v>
+        <v>0.01819514059362809</v>
       </c>
       <c r="E4">
-        <v>-0.04601005600430615</v>
+        <v>-0.05190649804453489</v>
       </c>
       <c r="F4">
-        <v>-0.01774994797881147</v>
+        <v>0.1342288609701733</v>
       </c>
       <c r="G4">
-        <v>-0.01218011797150431</v>
+        <v>0.02048574939058712</v>
       </c>
       <c r="H4">
-        <v>0.009501188517046937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.007984666071146991</v>
+      </c>
+      <c r="I4">
+        <v>0.04915073399922842</v>
+      </c>
+      <c r="J4">
+        <v>0.02472098022869198</v>
+      </c>
+      <c r="K4">
+        <v>-0.0927696269417625</v>
+      </c>
+      <c r="L4">
+        <v>-0.011107541518154</v>
+      </c>
+      <c r="M4">
+        <v>-0.04646936854286444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1284213067016974</v>
+        <v>-0.1303246917628113</v>
       </c>
       <c r="C6">
-        <v>0.03607364551024382</v>
+        <v>0.050693467552823</v>
       </c>
       <c r="D6">
-        <v>-0.03838790612153263</v>
+        <v>-0.000805953947880634</v>
       </c>
       <c r="E6">
-        <v>-0.05468047052441826</v>
+        <v>-0.002290513129339557</v>
       </c>
       <c r="F6">
-        <v>0.1084703713436952</v>
+        <v>-0.005038454849097208</v>
       </c>
       <c r="G6">
-        <v>0.003247523186963428</v>
+        <v>0.1288626889404727</v>
       </c>
       <c r="H6">
-        <v>-0.2467342543439646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1860427167188242</v>
+      </c>
+      <c r="I6">
+        <v>0.370587563416398</v>
+      </c>
+      <c r="J6">
+        <v>-0.1632398494070164</v>
+      </c>
+      <c r="K6">
+        <v>-0.09806277699113843</v>
+      </c>
+      <c r="L6">
+        <v>0.07411273400744134</v>
+      </c>
+      <c r="M6">
+        <v>-0.01813865584877604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.07450939852430319</v>
+        <v>-0.07269857503554072</v>
       </c>
       <c r="C7">
-        <v>0.05664104467779732</v>
+        <v>0.07016945627974673</v>
       </c>
       <c r="D7">
-        <v>-0.05789598961980535</v>
+        <v>0.009877625015919694</v>
       </c>
       <c r="E7">
-        <v>-0.04212687784316177</v>
+        <v>-0.05541520416087938</v>
       </c>
       <c r="F7">
-        <v>0.03701013505326677</v>
+        <v>0.02309904778391245</v>
       </c>
       <c r="G7">
-        <v>-0.003563402200651771</v>
+        <v>0.008388950298269873</v>
       </c>
       <c r="H7">
-        <v>0.02047505969780657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.01085712521380429</v>
+      </c>
+      <c r="I7">
+        <v>-0.04939205705654543</v>
+      </c>
+      <c r="J7">
+        <v>0.04382121999891912</v>
+      </c>
+      <c r="K7">
+        <v>-0.09402579267888189</v>
+      </c>
+      <c r="L7">
+        <v>-0.01548513044558514</v>
+      </c>
+      <c r="M7">
+        <v>0.02738907982628545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.03009640477107099</v>
+        <v>-0.04227339581986411</v>
       </c>
       <c r="C8">
-        <v>0.01507024145222076</v>
+        <v>0.008345190673686186</v>
       </c>
       <c r="D8">
-        <v>-0.05097825771589057</v>
+        <v>0.01178694264977863</v>
       </c>
       <c r="E8">
-        <v>-0.04752971202525871</v>
+        <v>-0.04683156374877924</v>
       </c>
       <c r="F8">
-        <v>-0.01337360321171543</v>
+        <v>0.1034448976300061</v>
       </c>
       <c r="G8">
-        <v>-0.05146651430244324</v>
+        <v>0.003244356789257816</v>
       </c>
       <c r="H8">
-        <v>0.02355938106708789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.008639365615124269</v>
+      </c>
+      <c r="I8">
+        <v>0.05107728519404309</v>
+      </c>
+      <c r="J8">
+        <v>0.04183115696069852</v>
+      </c>
+      <c r="K8">
+        <v>-0.07231634684027979</v>
+      </c>
+      <c r="L8">
+        <v>0.02543419735315666</v>
+      </c>
+      <c r="M8">
+        <v>-0.05392098054293338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07720247463635857</v>
+        <v>-0.08557115442066129</v>
       </c>
       <c r="C9">
-        <v>0.06299420743824519</v>
+        <v>0.0740416948954804</v>
       </c>
       <c r="D9">
-        <v>-0.03781350129279121</v>
+        <v>-0.001149883605842624</v>
       </c>
       <c r="E9">
-        <v>-0.04219792025879388</v>
+        <v>-0.03335612167640737</v>
       </c>
       <c r="F9">
-        <v>-0.02990811093031988</v>
+        <v>0.1287490701338646</v>
       </c>
       <c r="G9">
-        <v>-0.01435666728401309</v>
+        <v>0.02661235331381365</v>
       </c>
       <c r="H9">
-        <v>0.001671388567436193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.00370332211716812</v>
+      </c>
+      <c r="I9">
+        <v>0.01206690109105987</v>
+      </c>
+      <c r="J9">
+        <v>0.0200819339103165</v>
+      </c>
+      <c r="K9">
+        <v>-0.06541856811170724</v>
+      </c>
+      <c r="L9">
+        <v>0.01108653182784867</v>
+      </c>
+      <c r="M9">
+        <v>0.01297697850296539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06151893478242016</v>
+        <v>-0.1122504370751367</v>
       </c>
       <c r="C10">
-        <v>-0.1385915454809858</v>
+        <v>-0.1639472503095793</v>
       </c>
       <c r="D10">
-        <v>-0.0709380857175135</v>
+        <v>0.006414733489987326</v>
       </c>
       <c r="E10">
-        <v>-0.03902914563976867</v>
+        <v>-0.05395289820248009</v>
       </c>
       <c r="F10">
-        <v>0.0391142291837205</v>
+        <v>-0.01306635237820925</v>
       </c>
       <c r="G10">
-        <v>-0.004780224495513274</v>
+        <v>0.02062487541210532</v>
       </c>
       <c r="H10">
-        <v>-0.01145424709877887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.002984241930587846</v>
+      </c>
+      <c r="I10">
+        <v>-0.04254818481227761</v>
+      </c>
+      <c r="J10">
+        <v>-0.0234231729963701</v>
+      </c>
+      <c r="K10">
+        <v>0.01360470460559501</v>
+      </c>
+      <c r="L10">
+        <v>-0.02973072113986542</v>
+      </c>
+      <c r="M10">
+        <v>0.1320189127477615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.07336752080125075</v>
+        <v>-0.06910456372303191</v>
       </c>
       <c r="C11">
-        <v>0.08405819600899275</v>
+        <v>0.07475251671830251</v>
       </c>
       <c r="D11">
-        <v>-0.03014585723827421</v>
+        <v>-0.02807751345823192</v>
       </c>
       <c r="E11">
-        <v>-0.008058734392226992</v>
+        <v>-0.01267099425033451</v>
       </c>
       <c r="F11">
-        <v>-0.05145037784739018</v>
+        <v>0.1178540014964873</v>
       </c>
       <c r="G11">
-        <v>-0.06820333580442177</v>
+        <v>0.02302506044174638</v>
       </c>
       <c r="H11">
-        <v>0.04633688516805779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.004366733191136958</v>
+      </c>
+      <c r="I11">
+        <v>-0.08704790964324323</v>
+      </c>
+      <c r="J11">
+        <v>0.04608722218914209</v>
+      </c>
+      <c r="K11">
+        <v>0.01133565662696262</v>
+      </c>
+      <c r="L11">
+        <v>0.03726868738783613</v>
+      </c>
+      <c r="M11">
+        <v>0.1295375171908819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.07315078944695302</v>
+        <v>-0.0696904754640236</v>
       </c>
       <c r="C12">
-        <v>0.05974519128538831</v>
+        <v>0.06692119884143145</v>
       </c>
       <c r="D12">
-        <v>-0.02103832194867145</v>
+        <v>-0.02757501492937215</v>
       </c>
       <c r="E12">
-        <v>-0.03519659025898767</v>
+        <v>-0.00401866569095531</v>
       </c>
       <c r="F12">
-        <v>-0.00244411577270619</v>
+        <v>0.1211133301819984</v>
       </c>
       <c r="G12">
-        <v>-0.0475602621698267</v>
+        <v>0.02055283870837553</v>
       </c>
       <c r="H12">
-        <v>0.04002779902294441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.02482721129220604</v>
+      </c>
+      <c r="I12">
+        <v>-0.06751233166790027</v>
+      </c>
+      <c r="J12">
+        <v>0.07454961741850674</v>
+      </c>
+      <c r="K12">
+        <v>-0.01481385641805509</v>
+      </c>
+      <c r="L12">
+        <v>0.03945533051165443</v>
+      </c>
+      <c r="M12">
+        <v>0.1528420032462804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05787208798660477</v>
+        <v>-0.04539932671971427</v>
       </c>
       <c r="C13">
-        <v>0.01398288442312995</v>
+        <v>0.03141242135058468</v>
       </c>
       <c r="D13">
-        <v>0.000253113594128179</v>
+        <v>0.02173896271549071</v>
       </c>
       <c r="E13">
-        <v>-0.01996544110044713</v>
+        <v>-0.01202876771419619</v>
       </c>
       <c r="F13">
-        <v>-0.05312296882628634</v>
+        <v>0.04016383211546297</v>
       </c>
       <c r="G13">
-        <v>0.01270593529685558</v>
+        <v>-0.00757890369866688</v>
       </c>
       <c r="H13">
-        <v>-0.00934959642540353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.007865106347254597</v>
+      </c>
+      <c r="I13">
+        <v>0.01445047085670451</v>
+      </c>
+      <c r="J13">
+        <v>0.003984990027982933</v>
+      </c>
+      <c r="K13">
+        <v>-0.03320733577163743</v>
+      </c>
+      <c r="L13">
+        <v>-0.0284943567366189</v>
+      </c>
+      <c r="M13">
+        <v>-0.03230009557091199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.05299187399672149</v>
+        <v>-0.04097998624110573</v>
       </c>
       <c r="C14">
-        <v>0.02451408579780662</v>
+        <v>0.03099038965988605</v>
       </c>
       <c r="D14">
-        <v>-0.02589453417077468</v>
+        <v>-0.01395513124164569</v>
       </c>
       <c r="E14">
-        <v>-0.02080066320892455</v>
+        <v>-0.01787083411500441</v>
       </c>
       <c r="F14">
-        <v>0.01672244863505171</v>
+        <v>0.0644122747290061</v>
       </c>
       <c r="G14">
-        <v>-0.02254441256842333</v>
+        <v>-0.01116877421672245</v>
       </c>
       <c r="H14">
-        <v>-0.06669709301527288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03552025124991694</v>
+      </c>
+      <c r="I14">
+        <v>0.03811029623413975</v>
+      </c>
+      <c r="J14">
+        <v>-0.01232170098919034</v>
+      </c>
+      <c r="K14">
+        <v>-0.08837403476662288</v>
+      </c>
+      <c r="L14">
+        <v>-0.01681833660835041</v>
+      </c>
+      <c r="M14">
+        <v>-0.006643590396957226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.04044297766172075</v>
+        <v>-0.02659683385454188</v>
       </c>
       <c r="C15">
-        <v>-0.004194418443683669</v>
+        <v>0.009524672562077598</v>
       </c>
       <c r="D15">
-        <v>0.005377989324774476</v>
+        <v>0.05668355458694184</v>
       </c>
       <c r="E15">
-        <v>-0.02609581433981737</v>
+        <v>-0.003251240922490443</v>
       </c>
       <c r="F15">
-        <v>-0.00714865786764988</v>
+        <v>-0.0003975796668366735</v>
       </c>
       <c r="G15">
-        <v>0.01366128357522101</v>
+        <v>0.03594043085020644</v>
       </c>
       <c r="H15">
-        <v>-0.008341832946951604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03962042046415554</v>
+      </c>
+      <c r="I15">
+        <v>0.04070769066880643</v>
+      </c>
+      <c r="J15">
+        <v>0.000200719722394906</v>
+      </c>
+      <c r="K15">
+        <v>-0.06386285318060339</v>
+      </c>
+      <c r="L15">
+        <v>-0.03392462141652379</v>
+      </c>
+      <c r="M15">
+        <v>0.008887179272742326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.06342759014056115</v>
+        <v>-0.07257793157854427</v>
       </c>
       <c r="C16">
-        <v>0.08279515041370258</v>
+        <v>0.08048403757893587</v>
       </c>
       <c r="D16">
-        <v>-0.02801729457106187</v>
+        <v>-0.01827362898671752</v>
       </c>
       <c r="E16">
-        <v>-0.03314654300516551</v>
+        <v>-0.01328694300188888</v>
       </c>
       <c r="F16">
-        <v>-0.0443089444123063</v>
+        <v>0.1153717389821094</v>
       </c>
       <c r="G16">
-        <v>-0.04442902342465142</v>
+        <v>0.007435075793731024</v>
       </c>
       <c r="H16">
-        <v>0.03883840509215009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.01233084957830438</v>
+      </c>
+      <c r="I16">
+        <v>-0.07414015284409818</v>
+      </c>
+      <c r="J16">
+        <v>0.06235637178245058</v>
+      </c>
+      <c r="K16">
+        <v>-0.01730243966958772</v>
+      </c>
+      <c r="L16">
+        <v>0.04541958145879273</v>
+      </c>
+      <c r="M16">
+        <v>0.1312456130359015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04528882149132468</v>
+        <v>-0.04610853252100779</v>
       </c>
       <c r="C20">
-        <v>0.04336933573779116</v>
+        <v>0.03254904827432073</v>
       </c>
       <c r="D20">
-        <v>-0.01147249459351447</v>
+        <v>0.02583625242335578</v>
       </c>
       <c r="E20">
-        <v>-0.02252907716657569</v>
+        <v>-0.019426312675329</v>
       </c>
       <c r="F20">
-        <v>-0.02367371275152282</v>
+        <v>0.06666422097375725</v>
       </c>
       <c r="G20">
-        <v>-0.01987665145654625</v>
+        <v>-0.005885319579376016</v>
       </c>
       <c r="H20">
-        <v>0.001831501484419491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01193123387605485</v>
+      </c>
+      <c r="I20">
+        <v>-0.005531713123930119</v>
+      </c>
+      <c r="J20">
+        <v>0.01608031183435997</v>
+      </c>
+      <c r="K20">
+        <v>-0.08656785891529949</v>
+      </c>
+      <c r="L20">
+        <v>0.009370431975346354</v>
+      </c>
+      <c r="M20">
+        <v>0.02116254506311698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.02363616959280291</v>
+        <v>-0.02494584669916438</v>
       </c>
       <c r="C21">
-        <v>0.0330205195761585</v>
+        <v>0.02526030112733245</v>
       </c>
       <c r="D21">
-        <v>-5.967249421438128e-05</v>
+        <v>0.007847579707887792</v>
       </c>
       <c r="E21">
-        <v>-0.05768805965175232</v>
+        <v>-0.02556153705001088</v>
       </c>
       <c r="F21">
-        <v>0.07034831474108152</v>
+        <v>0.05041114073732999</v>
       </c>
       <c r="G21">
-        <v>-0.004547992336924218</v>
+        <v>0.1117872655097382</v>
       </c>
       <c r="H21">
-        <v>-0.003984204535238492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.02732613546463605</v>
+      </c>
+      <c r="I21">
+        <v>-0.02351481520476139</v>
+      </c>
+      <c r="J21">
+        <v>-0.03210092860719545</v>
+      </c>
+      <c r="K21">
+        <v>-0.07485545498560801</v>
+      </c>
+      <c r="L21">
+        <v>-0.05658214945052683</v>
+      </c>
+      <c r="M21">
+        <v>0.03347078430140577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01619372548936609</v>
+        <v>-0.04294312446007865</v>
       </c>
       <c r="C22">
-        <v>0.04052098470982374</v>
+        <v>0.02170438772291114</v>
       </c>
       <c r="D22">
-        <v>0.1025985902095854</v>
+        <v>0.6567996991928656</v>
       </c>
       <c r="E22">
-        <v>-0.5133114520786655</v>
+        <v>-0.04084085658512918</v>
       </c>
       <c r="F22">
-        <v>-0.09761054794513106</v>
+        <v>-0.05841852808781033</v>
       </c>
       <c r="G22">
-        <v>0.2831141361716042</v>
+        <v>-0.09192592283428831</v>
       </c>
       <c r="H22">
-        <v>0.1803099239090287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.09310053073969654</v>
+      </c>
+      <c r="I22">
+        <v>-0.08783449002919883</v>
+      </c>
+      <c r="J22">
+        <v>-0.06849837172291122</v>
+      </c>
+      <c r="K22">
+        <v>0.01711559404348675</v>
+      </c>
+      <c r="L22">
+        <v>0.0116340360477251</v>
+      </c>
+      <c r="M22">
+        <v>0.005411835842642258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01491555533778508</v>
+        <v>-0.04316753996098443</v>
       </c>
       <c r="C23">
-        <v>0.03895447339863451</v>
+        <v>0.02189819819955321</v>
       </c>
       <c r="D23">
-        <v>0.1022524623519126</v>
+        <v>0.6582809528066623</v>
       </c>
       <c r="E23">
-        <v>-0.5120498130114061</v>
+        <v>-0.04137016958346022</v>
       </c>
       <c r="F23">
-        <v>-0.09692809402488274</v>
+        <v>-0.05549564170461751</v>
       </c>
       <c r="G23">
-        <v>0.283415702459051</v>
+        <v>-0.09273352240109611</v>
       </c>
       <c r="H23">
-        <v>0.1777785169690032</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.09395409259140092</v>
+      </c>
+      <c r="I23">
+        <v>-0.08421009069044157</v>
+      </c>
+      <c r="J23">
+        <v>-0.06848870484028036</v>
+      </c>
+      <c r="K23">
+        <v>0.01816900855081376</v>
+      </c>
+      <c r="L23">
+        <v>0.01356850700322067</v>
+      </c>
+      <c r="M23">
+        <v>0.005153812420625779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07945418669391681</v>
+        <v>-0.0774415360086587</v>
       </c>
       <c r="C24">
-        <v>0.07391010166842177</v>
+        <v>0.07876813811519759</v>
       </c>
       <c r="D24">
-        <v>-0.03260689039016172</v>
+        <v>-0.01356222442382257</v>
       </c>
       <c r="E24">
-        <v>-0.03846325102791901</v>
+        <v>-0.01632583679183251</v>
       </c>
       <c r="F24">
-        <v>-0.03116983431259146</v>
+        <v>0.1159881186863611</v>
       </c>
       <c r="G24">
-        <v>-0.0466720018295136</v>
+        <v>0.01675255041674897</v>
       </c>
       <c r="H24">
-        <v>0.02743453858696657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.01271479848264041</v>
+      </c>
+      <c r="I24">
+        <v>-0.06750423531103973</v>
+      </c>
+      <c r="J24">
+        <v>0.04311128338617255</v>
+      </c>
+      <c r="K24">
+        <v>0.00735941443275069</v>
+      </c>
+      <c r="L24">
+        <v>0.05057218904144136</v>
+      </c>
+      <c r="M24">
+        <v>0.1230348555414749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06914501552318071</v>
+        <v>-0.07352607201734219</v>
       </c>
       <c r="C25">
-        <v>0.04244472826261066</v>
+        <v>0.05254092679554917</v>
       </c>
       <c r="D25">
-        <v>-0.02985820362389501</v>
+        <v>-0.03196658090828963</v>
       </c>
       <c r="E25">
-        <v>-0.04294276210936686</v>
+        <v>-0.01429791526622257</v>
       </c>
       <c r="F25">
-        <v>-0.04348551613386148</v>
+        <v>0.1235327730525557</v>
       </c>
       <c r="G25">
-        <v>-0.05921804541622037</v>
+        <v>0.004835788610967338</v>
       </c>
       <c r="H25">
-        <v>0.003203522962693211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.005871174022730748</v>
+      </c>
+      <c r="I25">
+        <v>-0.06113103818807826</v>
+      </c>
+      <c r="J25">
+        <v>0.04496103184924472</v>
+      </c>
+      <c r="K25">
+        <v>0.01246796021969834</v>
+      </c>
+      <c r="L25">
+        <v>0.07075405476347935</v>
+      </c>
+      <c r="M25">
+        <v>0.1310604876102754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.04419765950698654</v>
+        <v>-0.04327861482767525</v>
       </c>
       <c r="C26">
-        <v>0.03722917143668816</v>
+        <v>0.02203178795981762</v>
       </c>
       <c r="D26">
-        <v>-0.03887467764027984</v>
+        <v>0.01319988783207709</v>
       </c>
       <c r="E26">
-        <v>-0.002517845173934443</v>
+        <v>0.0007474216584351462</v>
       </c>
       <c r="F26">
-        <v>-0.007891395068871949</v>
+        <v>0.03807943103289468</v>
       </c>
       <c r="G26">
-        <v>0.02314590572672282</v>
+        <v>0.0007618168286145503</v>
       </c>
       <c r="H26">
-        <v>0.01389996953489702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.009544661020034395</v>
+      </c>
+      <c r="I26">
+        <v>-0.02216247824124953</v>
+      </c>
+      <c r="J26">
+        <v>-0.02308396601464616</v>
+      </c>
+      <c r="K26">
+        <v>-0.1269089462344713</v>
+      </c>
+      <c r="L26">
+        <v>-0.08410475869551685</v>
+      </c>
+      <c r="M26">
+        <v>0.01199694904926115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1057815672761019</v>
+        <v>-0.1478176414042369</v>
       </c>
       <c r="C28">
-        <v>-0.2967322748789107</v>
+        <v>-0.2840061743178516</v>
       </c>
       <c r="D28">
-        <v>-0.04671576018505675</v>
+        <v>-0.009208028826622652</v>
       </c>
       <c r="E28">
-        <v>-0.00179001946779145</v>
+        <v>-0.02610836818872175</v>
       </c>
       <c r="F28">
-        <v>0.0482605600985738</v>
+        <v>0.003222888262944639</v>
       </c>
       <c r="G28">
-        <v>0.008290282554548075</v>
+        <v>0.009480218867433341</v>
       </c>
       <c r="H28">
-        <v>0.05730738849775155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.02195538074909252</v>
+      </c>
+      <c r="I28">
+        <v>0.0001268988205337303</v>
+      </c>
+      <c r="J28">
+        <v>0.01649460429495449</v>
+      </c>
+      <c r="K28">
+        <v>-0.02124413277711653</v>
+      </c>
+      <c r="L28">
+        <v>-0.02654450478635506</v>
+      </c>
+      <c r="M28">
+        <v>-0.01442128871550347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05350963643008167</v>
+        <v>-0.04027325254464471</v>
       </c>
       <c r="C29">
-        <v>0.01854501098715737</v>
+        <v>0.02960498622049632</v>
       </c>
       <c r="D29">
-        <v>-0.01203667894072826</v>
+        <v>-0.002382541234700863</v>
       </c>
       <c r="E29">
-        <v>-0.02753694098577673</v>
+        <v>-0.02119040987110215</v>
       </c>
       <c r="F29">
-        <v>-0.005855304891103579</v>
+        <v>0.05692935848436729</v>
       </c>
       <c r="G29">
-        <v>0.009912016297819458</v>
+        <v>-0.01169410352474662</v>
       </c>
       <c r="H29">
-        <v>-0.005646050441097972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.01656246656890367</v>
+      </c>
+      <c r="I29">
+        <v>0.01764654583469304</v>
+      </c>
+      <c r="J29">
+        <v>-0.008490629384592255</v>
+      </c>
+      <c r="K29">
+        <v>-0.08057301959372336</v>
+      </c>
+      <c r="L29">
+        <v>-0.0127782779907325</v>
+      </c>
+      <c r="M29">
+        <v>0.01651890456406664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1311372929582378</v>
+        <v>-0.1048518705094787</v>
       </c>
       <c r="C30">
-        <v>0.04990497924825209</v>
+        <v>0.06388537983447094</v>
       </c>
       <c r="D30">
-        <v>-0.05427093760563348</v>
+        <v>0.004289652723144688</v>
       </c>
       <c r="E30">
-        <v>-0.1325185045729908</v>
+        <v>-0.02891589599477041</v>
       </c>
       <c r="F30">
-        <v>0.01304258874390385</v>
+        <v>0.2078399272196522</v>
       </c>
       <c r="G30">
-        <v>-0.1608970244908795</v>
+        <v>-0.02408986456638945</v>
       </c>
       <c r="H30">
-        <v>0.02831458232760072</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2513346827890148</v>
+      </c>
+      <c r="I30">
+        <v>-0.1006977232656511</v>
+      </c>
+      <c r="J30">
+        <v>-0.05211435746135368</v>
+      </c>
+      <c r="K30">
+        <v>-0.1836088287418494</v>
+      </c>
+      <c r="L30">
+        <v>0.002647789740759125</v>
+      </c>
+      <c r="M30">
+        <v>-0.3962844967818832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.05048603437946798</v>
+        <v>-0.03549309718428763</v>
       </c>
       <c r="C31">
-        <v>0.0247448761958894</v>
+        <v>0.04768681301979258</v>
       </c>
       <c r="D31">
-        <v>0.008034692954880716</v>
+        <v>0.005152860476614592</v>
       </c>
       <c r="E31">
-        <v>0.0008600907505008011</v>
+        <v>0.008383480808678579</v>
       </c>
       <c r="F31">
-        <v>-0.01136649202061828</v>
+        <v>0.02693881327327756</v>
       </c>
       <c r="G31">
-        <v>0.03827380318103508</v>
+        <v>-0.02195419426786578</v>
       </c>
       <c r="H31">
-        <v>-0.01132994425626423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03700489104829829</v>
+      </c>
+      <c r="I31">
+        <v>0.01587713025633488</v>
+      </c>
+      <c r="J31">
+        <v>0.02120248175719128</v>
+      </c>
+      <c r="K31">
+        <v>-0.0338251410189393</v>
+      </c>
+      <c r="L31">
+        <v>0.01465145368246776</v>
+      </c>
+      <c r="M31">
+        <v>0.001304688489977926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02076180224622776</v>
+        <v>-0.04504287136136925</v>
       </c>
       <c r="C32">
-        <v>-0.0133878133046997</v>
+        <v>-0.003220113996553428</v>
       </c>
       <c r="D32">
-        <v>0.01016659103833744</v>
+        <v>-0.01514201914692544</v>
       </c>
       <c r="E32">
-        <v>-0.08478888481993541</v>
+        <v>0.00124996291997573</v>
       </c>
       <c r="F32">
-        <v>-0.07768077075994009</v>
+        <v>0.09056318187246616</v>
       </c>
       <c r="G32">
-        <v>-0.03073196883752938</v>
+        <v>0.01472918215976287</v>
       </c>
       <c r="H32">
-        <v>0.03612080384178776</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.07790991625510445</v>
+      </c>
+      <c r="I32">
+        <v>-0.02137539309824968</v>
+      </c>
+      <c r="J32">
+        <v>0.04982804095716161</v>
+      </c>
+      <c r="K32">
+        <v>-0.03188342634707299</v>
+      </c>
+      <c r="L32">
+        <v>-0.0004208470318388743</v>
+      </c>
+      <c r="M32">
+        <v>-0.1708092138207446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1026456353251559</v>
+        <v>-0.1003234231648241</v>
       </c>
       <c r="C33">
-        <v>0.04447179306220907</v>
+        <v>0.06770268176363101</v>
       </c>
       <c r="D33">
-        <v>-0.00557994516544667</v>
+        <v>-0.01242545452189547</v>
       </c>
       <c r="E33">
-        <v>-0.01942944465331292</v>
+        <v>0.01295102849873817</v>
       </c>
       <c r="F33">
-        <v>-0.05203042826002</v>
+        <v>0.07669581485631732</v>
       </c>
       <c r="G33">
-        <v>-0.01337039600544658</v>
+        <v>-0.0202603887066001</v>
       </c>
       <c r="H33">
-        <v>0.002270877045572507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.007438273150300512</v>
+      </c>
+      <c r="I33">
+        <v>0.00411521583797573</v>
+      </c>
+      <c r="J33">
+        <v>-0.05112487033304589</v>
+      </c>
+      <c r="K33">
+        <v>-0.03538167619422763</v>
+      </c>
+      <c r="L33">
+        <v>-0.001538929434965915</v>
+      </c>
+      <c r="M33">
+        <v>0.009309806869252783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05672700461834497</v>
+        <v>-0.06390554251271094</v>
       </c>
       <c r="C34">
-        <v>0.07689210719880761</v>
+        <v>0.06769625769304442</v>
       </c>
       <c r="D34">
-        <v>-0.01936091203458397</v>
+        <v>-0.02140895997229373</v>
       </c>
       <c r="E34">
-        <v>-0.0215827763600882</v>
+        <v>-0.008010034984540955</v>
       </c>
       <c r="F34">
-        <v>-0.02995383297829359</v>
+        <v>0.1039887674662581</v>
       </c>
       <c r="G34">
-        <v>-0.03125293330378676</v>
+        <v>0.01314424707467741</v>
       </c>
       <c r="H34">
-        <v>0.02520929981047255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.01185964384621934</v>
+      </c>
+      <c r="I34">
+        <v>-0.06476805360105123</v>
+      </c>
+      <c r="J34">
+        <v>0.05476710105569959</v>
+      </c>
+      <c r="K34">
+        <v>-0.02114963409133319</v>
+      </c>
+      <c r="L34">
+        <v>0.04446218077486443</v>
+      </c>
+      <c r="M34">
+        <v>0.1382104604439301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.04487046198909377</v>
+        <v>-0.0265141911238525</v>
       </c>
       <c r="C35">
-        <v>0.04485337863354574</v>
+        <v>0.02800507445457617</v>
       </c>
       <c r="D35">
-        <v>-0.006726485890760125</v>
+        <v>-0.001124655429987976</v>
       </c>
       <c r="E35">
-        <v>-0.0173808525537943</v>
+        <v>0.002175075706397768</v>
       </c>
       <c r="F35">
-        <v>-0.008213957392925577</v>
+        <v>0.03496823096366472</v>
       </c>
       <c r="G35">
-        <v>-0.0196961426729972</v>
+        <v>-0.005993648478633784</v>
       </c>
       <c r="H35">
-        <v>-0.005623087701972972</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.0005161545261986704</v>
+      </c>
+      <c r="I35">
+        <v>-0.04964313776951163</v>
+      </c>
+      <c r="J35">
+        <v>0.02501696979339804</v>
+      </c>
+      <c r="K35">
+        <v>-0.07147172320339226</v>
+      </c>
+      <c r="L35">
+        <v>0.005965290828680811</v>
+      </c>
+      <c r="M35">
+        <v>0.004050321176189088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03676060401027823</v>
+        <v>-0.0281461212259977</v>
       </c>
       <c r="C36">
-        <v>0.02244642928605676</v>
+        <v>0.02111878244756876</v>
       </c>
       <c r="D36">
-        <v>-0.02728824416028663</v>
+        <v>0.01380357905303721</v>
       </c>
       <c r="E36">
-        <v>-0.03790378748474682</v>
+        <v>-0.0126936495758059</v>
       </c>
       <c r="F36">
-        <v>-0.0302500586816128</v>
+        <v>0.06515552523959468</v>
       </c>
       <c r="G36">
-        <v>-0.01286305834019078</v>
+        <v>0.003695213901043009</v>
       </c>
       <c r="H36">
-        <v>-0.02397480531900036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.01032107891350187</v>
+      </c>
+      <c r="I36">
+        <v>0.01457574426977575</v>
+      </c>
+      <c r="J36">
+        <v>-0.01641496221028393</v>
+      </c>
+      <c r="K36">
+        <v>-0.05785829366955012</v>
+      </c>
+      <c r="L36">
+        <v>-0.01195576419539545</v>
+      </c>
+      <c r="M36">
+        <v>0.04587379877775465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.0442810413611559</v>
+        <v>-0.02782512406352495</v>
       </c>
       <c r="C38">
-        <v>0.03417548384225565</v>
+        <v>0.04834777632761147</v>
       </c>
       <c r="D38">
-        <v>0.01640843425128704</v>
+        <v>0.02425603863618514</v>
       </c>
       <c r="E38">
-        <v>-0.04093238394362871</v>
+        <v>-0.004249194697142059</v>
       </c>
       <c r="F38">
-        <v>-0.04418838047080996</v>
+        <v>-0.05065271286695051</v>
       </c>
       <c r="G38">
-        <v>-0.004882495957435918</v>
+        <v>-0.05532007178176702</v>
       </c>
       <c r="H38">
-        <v>0.05253659499936229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.009366630006240164</v>
+      </c>
+      <c r="I38">
+        <v>-0.03294150133643611</v>
+      </c>
+      <c r="J38">
+        <v>-0.06838816966643115</v>
+      </c>
+      <c r="K38">
+        <v>-0.01750395252370666</v>
+      </c>
+      <c r="L38">
+        <v>-0.1075096822179781</v>
+      </c>
+      <c r="M38">
+        <v>-0.08457853613275793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.1003119591469782</v>
+        <v>-0.1040545031390832</v>
       </c>
       <c r="C39">
-        <v>0.09237292227953019</v>
+        <v>0.09464269812834218</v>
       </c>
       <c r="D39">
-        <v>-0.01055784743311113</v>
+        <v>-0.08229024619966394</v>
       </c>
       <c r="E39">
-        <v>-0.03523681846426999</v>
+        <v>0.02955670523884157</v>
       </c>
       <c r="F39">
-        <v>-0.0254223131995522</v>
+        <v>0.1738241813439247</v>
       </c>
       <c r="G39">
-        <v>-0.08580692666758599</v>
+        <v>-0.06062209789985362</v>
       </c>
       <c r="H39">
-        <v>0.09835965733065584</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.09994685309385599</v>
+      </c>
+      <c r="I39">
+        <v>-0.1672538582523351</v>
+      </c>
+      <c r="J39">
+        <v>0.1168599537954061</v>
+      </c>
+      <c r="K39">
+        <v>0.008594290391961013</v>
+      </c>
+      <c r="L39">
+        <v>0.10663872962302</v>
+      </c>
+      <c r="M39">
+        <v>-0.01753652450966198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.0412235603904925</v>
+        <v>-0.0320712590660362</v>
       </c>
       <c r="C40">
-        <v>0.03916367230206328</v>
+        <v>0.06023241916950529</v>
       </c>
       <c r="D40">
-        <v>0.04991723809743412</v>
+        <v>0.04782574330652258</v>
       </c>
       <c r="E40">
-        <v>-0.1188198838905456</v>
+        <v>-0.006684237245372547</v>
       </c>
       <c r="F40">
-        <v>-0.07288883126056413</v>
+        <v>0.1040907977676842</v>
       </c>
       <c r="G40">
-        <v>-0.07913453109019487</v>
+        <v>0.08367863036155872</v>
       </c>
       <c r="H40">
-        <v>0.1015926308754097</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.001106192291648228</v>
+      </c>
+      <c r="I40">
+        <v>-0.06354356733824386</v>
+      </c>
+      <c r="J40">
+        <v>-0.06459038840364725</v>
+      </c>
+      <c r="K40">
+        <v>-0.01568842406949377</v>
+      </c>
+      <c r="L40">
+        <v>-0.1299032571468414</v>
+      </c>
+      <c r="M40">
+        <v>-0.06177049695163243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04591530643427331</v>
+        <v>-0.03871228808031875</v>
       </c>
       <c r="C41">
-        <v>0.0490084750774677</v>
+        <v>0.03669266962415772</v>
       </c>
       <c r="D41">
-        <v>-0.006417352641225751</v>
+        <v>-0.01390339619719987</v>
       </c>
       <c r="E41">
-        <v>-0.002400068293036395</v>
+        <v>0.003022099699107991</v>
       </c>
       <c r="F41">
-        <v>-0.03001951556057918</v>
+        <v>0.02003519160020898</v>
       </c>
       <c r="G41">
-        <v>-0.004860775018099963</v>
+        <v>-0.01788385793863497</v>
       </c>
       <c r="H41">
-        <v>0.02143314848019806</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.01253041253829481</v>
+      </c>
+      <c r="I41">
+        <v>-0.02809773607192174</v>
+      </c>
+      <c r="J41">
+        <v>0.01957238771851856</v>
+      </c>
+      <c r="K41">
+        <v>-0.03850749018631403</v>
+      </c>
+      <c r="L41">
+        <v>-0.02927197589344157</v>
+      </c>
+      <c r="M41">
+        <v>0.03329884045539277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.06104558638502378</v>
+        <v>-0.05021162660313018</v>
       </c>
       <c r="C43">
-        <v>0.03712440259437747</v>
+        <v>0.04430667135727925</v>
       </c>
       <c r="D43">
-        <v>-0.02700586195094074</v>
+        <v>0.01382016491149149</v>
       </c>
       <c r="E43">
-        <v>-0.033762974729205</v>
+        <v>-0.01008759193633661</v>
       </c>
       <c r="F43">
-        <v>-0.01480886046438063</v>
+        <v>0.01262120489069936</v>
       </c>
       <c r="G43">
-        <v>0.016563331236218</v>
+        <v>-0.04480682672835934</v>
       </c>
       <c r="H43">
-        <v>0.02003850257128759</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01337388995850755</v>
+      </c>
+      <c r="I43">
+        <v>-0.01053484909521787</v>
+      </c>
+      <c r="J43">
+        <v>0.03259802366017995</v>
+      </c>
+      <c r="K43">
+        <v>-0.03005212295242615</v>
+      </c>
+      <c r="L43">
+        <v>-0.006885819857623397</v>
+      </c>
+      <c r="M43">
+        <v>0.03979927554650719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.04837757416164714</v>
+        <v>-0.08344022406262819</v>
       </c>
       <c r="C44">
-        <v>0.01040739854398676</v>
+        <v>0.0587980378127838</v>
       </c>
       <c r="D44">
-        <v>-0.07488246249024259</v>
+        <v>0.07982997946214457</v>
       </c>
       <c r="E44">
-        <v>-0.09936097248271304</v>
+        <v>-0.107748652482943</v>
       </c>
       <c r="F44">
-        <v>-0.04119498260630623</v>
+        <v>0.1715250987454106</v>
       </c>
       <c r="G44">
-        <v>-0.1086014786973769</v>
+        <v>0.01309907384326726</v>
       </c>
       <c r="H44">
-        <v>0.01420961036241238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.01380112905962533</v>
+      </c>
+      <c r="I44">
+        <v>-0.087572398064946</v>
+      </c>
+      <c r="J44">
+        <v>-0.01208392377345949</v>
+      </c>
+      <c r="K44">
+        <v>-0.001985633229401733</v>
+      </c>
+      <c r="L44">
+        <v>-0.02704563043789335</v>
+      </c>
+      <c r="M44">
+        <v>-0.1059192087770946</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.0223643154929339</v>
+        <v>-0.03353323833633856</v>
       </c>
       <c r="C46">
-        <v>0.04712158802898553</v>
+        <v>0.03901217353061387</v>
       </c>
       <c r="D46">
-        <v>-0.01730769216324557</v>
+        <v>0.04024357797072105</v>
       </c>
       <c r="E46">
-        <v>-0.03752574172370046</v>
+        <v>-0.04066082545217716</v>
       </c>
       <c r="F46">
-        <v>-0.01051898998418994</v>
+        <v>0.03675870804220879</v>
       </c>
       <c r="G46">
-        <v>0.006691520308953592</v>
+        <v>0.01500987339050783</v>
       </c>
       <c r="H46">
-        <v>0.01282861882167181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.0520397965702163</v>
+      </c>
+      <c r="I46">
+        <v>0.01237898762874556</v>
+      </c>
+      <c r="J46">
+        <v>-0.01959157772216071</v>
+      </c>
+      <c r="K46">
+        <v>-0.1112411283781441</v>
+      </c>
+      <c r="L46">
+        <v>-0.01458020331712205</v>
+      </c>
+      <c r="M46">
+        <v>0.01432194018432553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02350700114142004</v>
+        <v>-0.04140536777291861</v>
       </c>
       <c r="C47">
-        <v>0.002589672594634276</v>
+        <v>0.02975735051329842</v>
       </c>
       <c r="D47">
-        <v>0.009728373487591511</v>
+        <v>0.01822174786211577</v>
       </c>
       <c r="E47">
-        <v>-0.06615448067267714</v>
+        <v>-0.01348911462479077</v>
       </c>
       <c r="F47">
-        <v>-0.0202906745412091</v>
+        <v>0.0378079755062151</v>
       </c>
       <c r="G47">
-        <v>-0.0001437815023894873</v>
+        <v>-0.007508746275054177</v>
       </c>
       <c r="H47">
-        <v>-0.03663202884761712</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.006712326901117824</v>
+      </c>
+      <c r="I47">
+        <v>0.02258394684190484</v>
+      </c>
+      <c r="J47">
+        <v>-0.03306883034283625</v>
+      </c>
+      <c r="K47">
+        <v>-0.03579159581574579</v>
+      </c>
+      <c r="L47">
+        <v>-0.01712916998230129</v>
+      </c>
+      <c r="M47">
+        <v>0.06290799682142191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03447765570761602</v>
+        <v>-0.04106144801399179</v>
       </c>
       <c r="C48">
-        <v>0.02350476094956224</v>
+        <v>0.02136246940682083</v>
       </c>
       <c r="D48">
-        <v>-0.00267790169836304</v>
+        <v>0.01138770922240619</v>
       </c>
       <c r="E48">
-        <v>-0.05391459635563318</v>
+        <v>-0.001747984216816344</v>
       </c>
       <c r="F48">
-        <v>-0.02352033091220721</v>
+        <v>0.06893629114642422</v>
       </c>
       <c r="G48">
-        <v>0.02601229559408633</v>
+        <v>0.04276815004599781</v>
       </c>
       <c r="H48">
-        <v>-0.001093075455254874</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.006347551488263026</v>
+      </c>
+      <c r="I48">
+        <v>0.003203956047778504</v>
+      </c>
+      <c r="J48">
+        <v>0.01493289431747333</v>
+      </c>
+      <c r="K48">
+        <v>-0.07229021176061516</v>
+      </c>
+      <c r="L48">
+        <v>0.01222828719346392</v>
+      </c>
+      <c r="M48">
+        <v>0.03136581077898197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.2128292322958954</v>
+        <v>-0.2240218275627833</v>
       </c>
       <c r="C49">
-        <v>0.1236987104851893</v>
+        <v>0.07654513590484098</v>
       </c>
       <c r="D49">
-        <v>-0.06622362423755898</v>
+        <v>-0.05427696451025041</v>
       </c>
       <c r="E49">
-        <v>0.05357316942647197</v>
+        <v>-0.03356767570078587</v>
       </c>
       <c r="F49">
-        <v>0.1810817666767144</v>
+        <v>-0.2521608988936099</v>
       </c>
       <c r="G49">
-        <v>-0.03080243407905993</v>
+        <v>0.117179733232115</v>
       </c>
       <c r="H49">
-        <v>0.05072978418141114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.05459766691785684</v>
+      </c>
+      <c r="I49">
+        <v>-0.1343114084608341</v>
+      </c>
+      <c r="J49">
+        <v>-0.05251535367289866</v>
+      </c>
+      <c r="K49">
+        <v>0.142207087613245</v>
+      </c>
+      <c r="L49">
+        <v>0.1043612817145543</v>
+      </c>
+      <c r="M49">
+        <v>0.1322878787729001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05753555559559073</v>
+        <v>-0.04658622279857451</v>
       </c>
       <c r="C50">
-        <v>0.02668491614715921</v>
+        <v>0.0408318456951999</v>
       </c>
       <c r="D50">
-        <v>0.001316301309827392</v>
+        <v>0.002102818758799438</v>
       </c>
       <c r="E50">
-        <v>-0.02745014068596829</v>
+        <v>0.01184177133367477</v>
       </c>
       <c r="F50">
-        <v>-0.04669780340076023</v>
+        <v>0.05308211898697621</v>
       </c>
       <c r="G50">
-        <v>0.04463667885890771</v>
+        <v>-0.03505448484555553</v>
       </c>
       <c r="H50">
-        <v>-0.04092827668436975</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.01620680387840815</v>
+      </c>
+      <c r="I50">
+        <v>0.02680056437349665</v>
+      </c>
+      <c r="J50">
+        <v>-0.01947155253895137</v>
+      </c>
+      <c r="K50">
+        <v>-0.0577792785747113</v>
+      </c>
+      <c r="L50">
+        <v>0.001789712576912782</v>
+      </c>
+      <c r="M50">
+        <v>-0.02198717193196531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02943489554859281</v>
+        <v>-0.02663309904665727</v>
       </c>
       <c r="C51">
-        <v>0.01637093918561664</v>
+        <v>0.006814437329908908</v>
       </c>
       <c r="D51">
-        <v>0.00239857624126374</v>
+        <v>-0.001581661286631931</v>
       </c>
       <c r="E51">
-        <v>-0.001733006222845215</v>
+        <v>-0.01758819161298308</v>
       </c>
       <c r="F51">
-        <v>-0.004211866749213359</v>
+        <v>-0.02242066810451742</v>
       </c>
       <c r="G51">
-        <v>-0.01191631204592821</v>
+        <v>-0.009544783051847226</v>
       </c>
       <c r="H51">
-        <v>0.02382802286974646</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01244291477233029</v>
+      </c>
+      <c r="I51">
+        <v>-0.0207674988877529</v>
+      </c>
+      <c r="J51">
+        <v>0.02959986501260517</v>
+      </c>
+      <c r="K51">
+        <v>0.05978890297203639</v>
+      </c>
+      <c r="L51">
+        <v>0.05617989191443232</v>
+      </c>
+      <c r="M51">
+        <v>0.004404686455446382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.03289350136309773</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.006434978083546121</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01587729342727106</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.001833644371433613</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02636859077393171</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.0420516738187611</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.006244293644305109</v>
+      </c>
+      <c r="I52">
+        <v>-0.008176890629625415</v>
+      </c>
+      <c r="J52">
+        <v>-0.00496938141114812</v>
+      </c>
+      <c r="K52">
+        <v>0.004366594519347106</v>
+      </c>
+      <c r="L52">
+        <v>0.01506584054592119</v>
+      </c>
+      <c r="M52">
+        <v>-0.05434571600903688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.171302175375506</v>
+        <v>-0.1588464194165395</v>
       </c>
       <c r="C53">
-        <v>0.003467108495364849</v>
+        <v>0.04523799405544469</v>
       </c>
       <c r="D53">
-        <v>-0.01624846217890753</v>
+        <v>-0.01564035448281211</v>
       </c>
       <c r="E53">
-        <v>0.07891996222557528</v>
+        <v>0.00517108295110373</v>
       </c>
       <c r="F53">
-        <v>-0.2444199495330642</v>
+        <v>-0.03671601036962932</v>
       </c>
       <c r="G53">
-        <v>0.02838547461404844</v>
+        <v>-0.2432615340916559</v>
       </c>
       <c r="H53">
-        <v>-0.0769165109382778</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.130214863316352</v>
+      </c>
+      <c r="I53">
+        <v>0.07705349403962342</v>
+      </c>
+      <c r="J53">
+        <v>-0.08026380559419534</v>
+      </c>
+      <c r="K53">
+        <v>0.03032248525050965</v>
+      </c>
+      <c r="L53">
+        <v>-0.001984561048062921</v>
+      </c>
+      <c r="M53">
+        <v>-0.09753780117739284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04951671214644744</v>
+        <v>-0.05431892007993756</v>
       </c>
       <c r="C54">
-        <v>0.03697862245119665</v>
+        <v>0.03963286595019448</v>
       </c>
       <c r="D54">
-        <v>-0.03546539526669575</v>
+        <v>0.01780401239375135</v>
       </c>
       <c r="E54">
-        <v>-0.05401557003243836</v>
+        <v>-0.02919634487982476</v>
       </c>
       <c r="F54">
-        <v>-0.02085459563158612</v>
+        <v>0.107359344637316</v>
       </c>
       <c r="G54">
-        <v>0.004991565202131765</v>
+        <v>0.0464687563509834</v>
       </c>
       <c r="H54">
-        <v>9.086619051383662e-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.03297263885745499</v>
+      </c>
+      <c r="I54">
+        <v>0.06094772963008922</v>
+      </c>
+      <c r="J54">
+        <v>0.03546108398917596</v>
+      </c>
+      <c r="K54">
+        <v>-0.1337542538499731</v>
+      </c>
+      <c r="L54">
+        <v>-0.05488258626697337</v>
+      </c>
+      <c r="M54">
+        <v>0.03811797475749674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09274895576606562</v>
+        <v>-0.0856133469952234</v>
       </c>
       <c r="C55">
-        <v>0.003255150473592395</v>
+        <v>0.03968094588643446</v>
       </c>
       <c r="D55">
-        <v>-0.01819145591369017</v>
+        <v>-0.03171209311692752</v>
       </c>
       <c r="E55">
-        <v>0.01539571559249696</v>
+        <v>-0.008079483903719884</v>
       </c>
       <c r="F55">
-        <v>-0.2072875178876273</v>
+        <v>0.02318161059168402</v>
       </c>
       <c r="G55">
-        <v>0.03850200100045775</v>
+        <v>-0.1472366203675009</v>
       </c>
       <c r="H55">
-        <v>-0.08710639575644925</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.09623720066995231</v>
+      </c>
+      <c r="I55">
+        <v>0.06314795759866888</v>
+      </c>
+      <c r="J55">
+        <v>-0.04385307125812459</v>
+      </c>
+      <c r="K55">
+        <v>0.009301291440115581</v>
+      </c>
+      <c r="L55">
+        <v>-6.609844311144283e-05</v>
+      </c>
+      <c r="M55">
+        <v>0.0007207094004413857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1634069967896829</v>
+        <v>-0.1506868623494256</v>
       </c>
       <c r="C56">
-        <v>0.007014643755837885</v>
+        <v>0.07005474145430741</v>
       </c>
       <c r="D56">
-        <v>-0.02935245476401934</v>
+        <v>-0.03422219387506295</v>
       </c>
       <c r="E56">
-        <v>0.08122992583963484</v>
+        <v>-0.01395916412158484</v>
       </c>
       <c r="F56">
-        <v>-0.2213377473973256</v>
+        <v>-0.01412757128302991</v>
       </c>
       <c r="G56">
-        <v>0.07878113897701691</v>
+        <v>-0.226517409932961</v>
       </c>
       <c r="H56">
-        <v>-0.07462373857679011</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1197846876522892</v>
+      </c>
+      <c r="I56">
+        <v>0.06560524182642638</v>
+      </c>
+      <c r="J56">
+        <v>-0.06815298744869754</v>
+      </c>
+      <c r="K56">
+        <v>0.04214784595307708</v>
+      </c>
+      <c r="L56">
+        <v>-0.04248079763746974</v>
+      </c>
+      <c r="M56">
+        <v>-0.05007183500889672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.02348730728835589</v>
+        <v>-0.03813414576856823</v>
       </c>
       <c r="C58">
-        <v>0.04898704357962448</v>
+        <v>0.02890684754637645</v>
       </c>
       <c r="D58">
-        <v>0.03225616319586941</v>
+        <v>0.08161348668344605</v>
       </c>
       <c r="E58">
-        <v>-0.3766441464935429</v>
+        <v>-0.006133820249580879</v>
       </c>
       <c r="F58">
-        <v>0.3112036593065682</v>
+        <v>0.06263493455702877</v>
       </c>
       <c r="G58">
-        <v>0.03131280720255681</v>
+        <v>0.05051085999730782</v>
       </c>
       <c r="H58">
-        <v>-0.3669996841032739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1372110144329837</v>
+      </c>
+      <c r="I58">
+        <v>-0.06663950960980233</v>
+      </c>
+      <c r="J58">
+        <v>0.2088462692780897</v>
+      </c>
+      <c r="K58">
+        <v>-0.1805359278108938</v>
+      </c>
+      <c r="L58">
+        <v>0.3902259023238857</v>
+      </c>
+      <c r="M58">
+        <v>0.001399700817573113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2255175335204312</v>
+        <v>-0.2273424822019088</v>
       </c>
       <c r="C59">
-        <v>-0.4074488574778796</v>
+        <v>-0.2952319189664705</v>
       </c>
       <c r="D59">
-        <v>-0.04112409712893598</v>
+        <v>-0.04466433130883652</v>
       </c>
       <c r="E59">
-        <v>-0.004981218275142567</v>
+        <v>-0.01261912554162834</v>
       </c>
       <c r="F59">
-        <v>-0.05109591524592841</v>
+        <v>0.02507933033816744</v>
       </c>
       <c r="G59">
-        <v>-0.0304858341568022</v>
+        <v>-0.05556105324144932</v>
       </c>
       <c r="H59">
-        <v>0.06062741166008957</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.06562070598073788</v>
+      </c>
+      <c r="I59">
+        <v>0.009369266071291151</v>
+      </c>
+      <c r="J59">
+        <v>0.0802107467256496</v>
+      </c>
+      <c r="K59">
+        <v>0.1185242145605437</v>
+      </c>
+      <c r="L59">
+        <v>-0.05013494821155126</v>
+      </c>
+      <c r="M59">
+        <v>-0.04740312370944042</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2543411988498054</v>
+        <v>-0.2386915355047996</v>
       </c>
       <c r="C60">
-        <v>0.07399367793181458</v>
+        <v>0.1176280500423869</v>
       </c>
       <c r="D60">
-        <v>-0.07612443113215081</v>
+        <v>-0.06381430859599165</v>
       </c>
       <c r="E60">
-        <v>0.003889816576576462</v>
+        <v>-0.04886204371945935</v>
       </c>
       <c r="F60">
-        <v>0.05442961855109638</v>
+        <v>-0.115431085573043</v>
       </c>
       <c r="G60">
-        <v>0.01916168923285191</v>
+        <v>0.03230213469301838</v>
       </c>
       <c r="H60">
-        <v>-0.05869032512325188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.114045208155303</v>
+      </c>
+      <c r="I60">
+        <v>0.09832340694767543</v>
+      </c>
+      <c r="J60">
+        <v>-0.1458150493057799</v>
+      </c>
+      <c r="K60">
+        <v>0.1888221151525113</v>
+      </c>
+      <c r="L60">
+        <v>0.09237199469410809</v>
+      </c>
+      <c r="M60">
+        <v>-0.04041136337240377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08563698832433075</v>
+        <v>-0.1013172508019031</v>
       </c>
       <c r="C61">
-        <v>0.05217520895846266</v>
+        <v>0.0682613314248343</v>
       </c>
       <c r="D61">
-        <v>-0.01317016325450001</v>
+        <v>-0.04405851634895625</v>
       </c>
       <c r="E61">
-        <v>-0.002638540432759822</v>
+        <v>-0.004762648898097997</v>
       </c>
       <c r="F61">
-        <v>-0.02460015568088895</v>
+        <v>0.1452328307258202</v>
       </c>
       <c r="G61">
-        <v>-0.01884616536929055</v>
+        <v>-0.06475860125536019</v>
       </c>
       <c r="H61">
-        <v>0.05968818212342537</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.02271802144164949</v>
+      </c>
+      <c r="I61">
+        <v>-0.1070911479204908</v>
+      </c>
+      <c r="J61">
+        <v>0.06528789394692085</v>
+      </c>
+      <c r="K61">
+        <v>-0.0386925917139069</v>
+      </c>
+      <c r="L61">
+        <v>0.03633295585080581</v>
+      </c>
+      <c r="M61">
+        <v>0.00169014235694695</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1588936172202241</v>
+        <v>-0.1409262488556256</v>
       </c>
       <c r="C62">
-        <v>0.04439462996846949</v>
+        <v>0.0707304052450264</v>
       </c>
       <c r="D62">
-        <v>0.009119521649529595</v>
+        <v>-0.03241978473247613</v>
       </c>
       <c r="E62">
-        <v>0.1408914176959591</v>
+        <v>0.03138499601235103</v>
       </c>
       <c r="F62">
-        <v>-0.2193747431285414</v>
+        <v>-0.02943459345900877</v>
       </c>
       <c r="G62">
-        <v>0.01387799321558483</v>
+        <v>-0.169770994129592</v>
       </c>
       <c r="H62">
-        <v>-0.02321307489775741</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1458103755669387</v>
+      </c>
+      <c r="I62">
+        <v>0.0671317407826952</v>
+      </c>
+      <c r="J62">
+        <v>-0.107057917253188</v>
+      </c>
+      <c r="K62">
+        <v>-0.003356747688289563</v>
+      </c>
+      <c r="L62">
+        <v>-0.07297023122440791</v>
+      </c>
+      <c r="M62">
+        <v>0.01023806948388031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.03936926363641702</v>
+        <v>-0.04719770317907966</v>
       </c>
       <c r="C63">
-        <v>0.03990583285535023</v>
+        <v>0.03132169255760304</v>
       </c>
       <c r="D63">
-        <v>-0.004979141320504317</v>
+        <v>-0.005594506507746113</v>
       </c>
       <c r="E63">
-        <v>-0.001134493296350856</v>
+        <v>0.01311220815161667</v>
       </c>
       <c r="F63">
-        <v>-0.02009349926462542</v>
+        <v>0.07235990936655495</v>
       </c>
       <c r="G63">
-        <v>-0.01422836919499555</v>
+        <v>0.006745875689628838</v>
       </c>
       <c r="H63">
-        <v>-0.04824935156361679</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.005761369081085789</v>
+      </c>
+      <c r="I63">
+        <v>-0.005577776476501298</v>
+      </c>
+      <c r="J63">
+        <v>0.00455830710556919</v>
+      </c>
+      <c r="K63">
+        <v>-0.06315508459989479</v>
+      </c>
+      <c r="L63">
+        <v>0.02003405218414127</v>
+      </c>
+      <c r="M63">
+        <v>0.02885857619273388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1058834104463257</v>
+        <v>-0.09905587872450555</v>
       </c>
       <c r="C64">
-        <v>0.02819629679810255</v>
+        <v>0.04584189972353409</v>
       </c>
       <c r="D64">
-        <v>-0.03663210131815276</v>
+        <v>0.008361179961754088</v>
       </c>
       <c r="E64">
-        <v>-0.04446225273336164</v>
+        <v>-0.03872697709398138</v>
       </c>
       <c r="F64">
-        <v>0.007311142544410975</v>
+        <v>0.06863437864480065</v>
       </c>
       <c r="G64">
-        <v>-0.04608288962064912</v>
+        <v>0.01057951497618716</v>
       </c>
       <c r="H64">
-        <v>0.05278556374955631</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.08142487792258726</v>
+      </c>
+      <c r="I64">
+        <v>-0.03112334336062949</v>
+      </c>
+      <c r="J64">
+        <v>-0.001953302038542748</v>
+      </c>
+      <c r="K64">
+        <v>-0.01753720353019059</v>
+      </c>
+      <c r="L64">
+        <v>-0.005403541017926209</v>
+      </c>
+      <c r="M64">
+        <v>-0.01895318304974472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1259748860224701</v>
+        <v>-0.1202258896755303</v>
       </c>
       <c r="C65">
-        <v>0.0530111536405212</v>
+        <v>0.04429574106245438</v>
       </c>
       <c r="D65">
-        <v>-0.0258194579175222</v>
+        <v>-0.01271120692826323</v>
       </c>
       <c r="E65">
-        <v>-0.08150516212195344</v>
+        <v>0.02406209223013767</v>
       </c>
       <c r="F65">
-        <v>0.1555876234799937</v>
+        <v>-0.01201781982832618</v>
       </c>
       <c r="G65">
-        <v>0.003260445458775252</v>
+        <v>0.1614070521578198</v>
       </c>
       <c r="H65">
-        <v>-0.6006319426991701</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.2700920366130787</v>
+      </c>
+      <c r="I65">
+        <v>0.5050816324666996</v>
+      </c>
+      <c r="J65">
+        <v>-0.3145873609648789</v>
+      </c>
+      <c r="K65">
+        <v>-0.1488959575673755</v>
+      </c>
+      <c r="L65">
+        <v>0.1785510271023183</v>
+      </c>
+      <c r="M65">
+        <v>-0.08637469848792617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.159334342182982</v>
+        <v>-0.1334771634401435</v>
       </c>
       <c r="C66">
-        <v>0.1254908884552168</v>
+        <v>0.1314650555521994</v>
       </c>
       <c r="D66">
-        <v>-0.01365838766995486</v>
+        <v>-0.09713554117337726</v>
       </c>
       <c r="E66">
-        <v>0.007104505727713516</v>
+        <v>0.04774029179367168</v>
       </c>
       <c r="F66">
-        <v>-0.05416012430560915</v>
+        <v>0.1838934997463146</v>
       </c>
       <c r="G66">
-        <v>-0.1702393572963602</v>
+        <v>-0.0713653113041587</v>
       </c>
       <c r="H66">
-        <v>0.2124302055009942</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08651987589206289</v>
+      </c>
+      <c r="I66">
+        <v>-0.2181528981080651</v>
+      </c>
+      <c r="J66">
+        <v>0.07112155594479674</v>
+      </c>
+      <c r="K66">
+        <v>0.08075602723484239</v>
+      </c>
+      <c r="L66">
+        <v>0.06663165545455395</v>
+      </c>
+      <c r="M66">
+        <v>-0.09528600021836497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.08215117792691166</v>
+        <v>-0.07488350384995821</v>
       </c>
       <c r="C67">
-        <v>0.04828145828218964</v>
+        <v>0.06021239292392962</v>
       </c>
       <c r="D67">
-        <v>-0.006979696791318182</v>
+        <v>0.0207640784690805</v>
       </c>
       <c r="E67">
-        <v>-0.007937853316154934</v>
+        <v>-0.02199796788704148</v>
       </c>
       <c r="F67">
-        <v>-0.02522990615316342</v>
+        <v>-0.05857659862460412</v>
       </c>
       <c r="G67">
-        <v>-0.002735780763529749</v>
+        <v>-0.08276284305160066</v>
       </c>
       <c r="H67">
-        <v>0.06959700658472864</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.03183374871186687</v>
+      </c>
+      <c r="I67">
+        <v>-0.04144164708901743</v>
+      </c>
+      <c r="J67">
+        <v>-0.04254014060789754</v>
+      </c>
+      <c r="K67">
+        <v>0.05989603324593561</v>
+      </c>
+      <c r="L67">
+        <v>-0.1346209340946608</v>
+      </c>
+      <c r="M67">
+        <v>-0.04821005039137069</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.09253147124100645</v>
+        <v>-0.1254162910626431</v>
       </c>
       <c r="C68">
-        <v>-0.2837012762800081</v>
+        <v>-0.2732992280569752</v>
       </c>
       <c r="D68">
-        <v>-0.004005718274484423</v>
+        <v>-0.008009046226818445</v>
       </c>
       <c r="E68">
-        <v>-0.0230299139252743</v>
+        <v>-0.003371655258155734</v>
       </c>
       <c r="F68">
-        <v>-0.02425771403822292</v>
+        <v>0.03714050037364678</v>
       </c>
       <c r="G68">
-        <v>0.03584295796176258</v>
+        <v>-0.02283144521816072</v>
       </c>
       <c r="H68">
-        <v>-0.02559714144147775</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01478275393365387</v>
+      </c>
+      <c r="I68">
+        <v>0.04283681031820481</v>
+      </c>
+      <c r="J68">
+        <v>-0.01956878871877481</v>
+      </c>
+      <c r="K68">
+        <v>-0.04114945850340163</v>
+      </c>
+      <c r="L68">
+        <v>0.0261549054939899</v>
+      </c>
+      <c r="M68">
+        <v>-0.01512756689847303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03336294797965104</v>
+        <v>-0.04351467077157431</v>
       </c>
       <c r="C69">
-        <v>0.0256155944989729</v>
+        <v>0.02210768403965177</v>
       </c>
       <c r="D69">
-        <v>-0.008179954768027596</v>
+        <v>0.006488757430473175</v>
       </c>
       <c r="E69">
-        <v>-0.00921090916229864</v>
+        <v>-0.0007265697154332566</v>
       </c>
       <c r="F69">
-        <v>-0.02738647962022284</v>
+        <v>0.01957887925600275</v>
       </c>
       <c r="G69">
-        <v>-0.02945028441341499</v>
+        <v>-0.02312970870770735</v>
       </c>
       <c r="H69">
-        <v>-0.003516056138991312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.006977612538031914</v>
+      </c>
+      <c r="I69">
+        <v>-0.0115631954006182</v>
+      </c>
+      <c r="J69">
+        <v>-0.00653952026905362</v>
+      </c>
+      <c r="K69">
+        <v>-0.01413211566967515</v>
+      </c>
+      <c r="L69">
+        <v>-0.01559788041013996</v>
+      </c>
+      <c r="M69">
+        <v>0.07355286094731679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.05172640024737474</v>
+        <v>-0.05502520241098621</v>
       </c>
       <c r="C70">
-        <v>-0.003706588331157842</v>
+        <v>0.0387577836735444</v>
       </c>
       <c r="D70">
-        <v>-0.03908142466560632</v>
+        <v>-0.01990013099413514</v>
       </c>
       <c r="E70">
-        <v>0.005645859652942756</v>
+        <v>-0.02318239611188642</v>
       </c>
       <c r="F70">
-        <v>0.09359694112206349</v>
+        <v>-0.008754144588464833</v>
       </c>
       <c r="G70">
-        <v>0.04798627679152407</v>
+        <v>0.06786095758514968</v>
       </c>
       <c r="H70">
-        <v>0.05363617660275723</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01112569284173021</v>
+      </c>
+      <c r="I70">
+        <v>0.0333005812557333</v>
+      </c>
+      <c r="J70">
+        <v>-0.03007871238761643</v>
+      </c>
+      <c r="K70">
+        <v>-0.1803991213313117</v>
+      </c>
+      <c r="L70">
+        <v>-0.2295572465826647</v>
+      </c>
+      <c r="M70">
+        <v>0.01210242907665684</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.09896644949813757</v>
+        <v>-0.1399246335526667</v>
       </c>
       <c r="C71">
-        <v>-0.2796246326943362</v>
+        <v>-0.2811415843457018</v>
       </c>
       <c r="D71">
-        <v>-0.03789192999809722</v>
+        <v>-0.01215480286759324</v>
       </c>
       <c r="E71">
-        <v>-0.01142251184595557</v>
+        <v>-0.0199589227108857</v>
       </c>
       <c r="F71">
-        <v>0.004192221240090006</v>
+        <v>0.03691297694224412</v>
       </c>
       <c r="G71">
-        <v>0.01229767640074584</v>
+        <v>-0.02353996246897158</v>
       </c>
       <c r="H71">
-        <v>0.001254084371816797</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02616188401434443</v>
+      </c>
+      <c r="I71">
+        <v>0.0005868497637628196</v>
+      </c>
+      <c r="J71">
+        <v>-0.01292676288564692</v>
+      </c>
+      <c r="K71">
+        <v>-0.02027574539068163</v>
+      </c>
+      <c r="L71">
+        <v>0.01790410457654039</v>
+      </c>
+      <c r="M71">
+        <v>-3.149270188630781e-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1788374204790867</v>
+        <v>-0.1470068413759787</v>
       </c>
       <c r="C72">
-        <v>0.02403243304485931</v>
+        <v>0.02769106022414009</v>
       </c>
       <c r="D72">
-        <v>0.252873923512814</v>
+        <v>0.002615959509178598</v>
       </c>
       <c r="E72">
-        <v>0.04534168628684331</v>
+        <v>0.1863624102986673</v>
       </c>
       <c r="F72">
-        <v>-0.05609492609669848</v>
+        <v>0.03610162857815435</v>
       </c>
       <c r="G72">
-        <v>-0.0696489370811019</v>
+        <v>-0.03154299086794689</v>
       </c>
       <c r="H72">
-        <v>-0.07772138980321226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.01965438681550624</v>
+      </c>
+      <c r="I72">
+        <v>0.1063076608289854</v>
+      </c>
+      <c r="J72">
+        <v>-0.1177591569434163</v>
+      </c>
+      <c r="K72">
+        <v>0.07779267853134766</v>
+      </c>
+      <c r="L72">
+        <v>0.01224075129398646</v>
+      </c>
+      <c r="M72">
+        <v>-0.03214916172300569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2852470336676292</v>
+        <v>-0.2395701556690232</v>
       </c>
       <c r="C73">
-        <v>0.1807430856473499</v>
+        <v>0.1513713636608652</v>
       </c>
       <c r="D73">
-        <v>-0.104263360602584</v>
+        <v>-0.141443438230953</v>
       </c>
       <c r="E73">
-        <v>0.04115992305517299</v>
+        <v>-0.09497810489630187</v>
       </c>
       <c r="F73">
-        <v>0.206808970106939</v>
+        <v>-0.4429142242486291</v>
       </c>
       <c r="G73">
-        <v>-0.02288403593161277</v>
+        <v>0.05717559229277693</v>
       </c>
       <c r="H73">
-        <v>-0.1393592801769943</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2532409178619706</v>
+      </c>
+      <c r="I73">
+        <v>-0.2806468897316069</v>
+      </c>
+      <c r="J73">
+        <v>-0.03681384506636862</v>
+      </c>
+      <c r="K73">
+        <v>0.2367060322509756</v>
+      </c>
+      <c r="L73">
+        <v>0.2536118109315498</v>
+      </c>
+      <c r="M73">
+        <v>-0.09908099536798418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09301369955237547</v>
+        <v>-0.09650248554837564</v>
       </c>
       <c r="C74">
-        <v>0.03716443821872781</v>
+        <v>0.07005520024041015</v>
       </c>
       <c r="D74">
-        <v>-0.006459116823807134</v>
+        <v>-0.01118886078099823</v>
       </c>
       <c r="E74">
-        <v>0.02130539104586716</v>
+        <v>0.01223401688026684</v>
       </c>
       <c r="F74">
-        <v>-0.1228488637366916</v>
+        <v>-0.01635959146632101</v>
       </c>
       <c r="G74">
-        <v>0.04311472491875396</v>
+        <v>-0.1554801357898489</v>
       </c>
       <c r="H74">
-        <v>-0.07859671095617282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.03102644094077142</v>
+      </c>
+      <c r="I74">
+        <v>-0.01073075681106184</v>
+      </c>
+      <c r="J74">
+        <v>-0.05204583764754077</v>
+      </c>
+      <c r="K74">
+        <v>-0.002662028047040027</v>
+      </c>
+      <c r="L74">
+        <v>0.01336558478273452</v>
+      </c>
+      <c r="M74">
+        <v>-0.0106370196323722</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09097543679811723</v>
+        <v>-0.09392664383094027</v>
       </c>
       <c r="C75">
-        <v>0.01735046788364808</v>
+        <v>0.05178720335176674</v>
       </c>
       <c r="D75">
-        <v>-0.007903187759546926</v>
+        <v>-0.008254144513578865</v>
       </c>
       <c r="E75">
-        <v>0.04253527111142004</v>
+        <v>0.01069180337163942</v>
       </c>
       <c r="F75">
-        <v>-0.1071324516694666</v>
+        <v>-0.01342888605359964</v>
       </c>
       <c r="G75">
-        <v>0.05824614283810462</v>
+        <v>-0.1030522154910909</v>
       </c>
       <c r="H75">
-        <v>-0.02703259175054976</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.07807651420635781</v>
+      </c>
+      <c r="I75">
+        <v>0.05241819544898794</v>
+      </c>
+      <c r="J75">
+        <v>-0.009499583763250687</v>
+      </c>
+      <c r="K75">
+        <v>0.01751813321134675</v>
+      </c>
+      <c r="L75">
+        <v>-0.01796017443344004</v>
+      </c>
+      <c r="M75">
+        <v>0.06432349164853032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1332106633006319</v>
+        <v>-0.081753038679545</v>
       </c>
       <c r="C76">
-        <v>0.0219349052731904</v>
+        <v>0.06250291674549335</v>
       </c>
       <c r="D76">
-        <v>-0.01009706671050103</v>
+        <v>-0.005340978314712027</v>
       </c>
       <c r="E76">
-        <v>0.02413432703750512</v>
+        <v>-0.01058492255946624</v>
       </c>
       <c r="F76">
-        <v>-0.2266946891169926</v>
+        <v>-0.04361004792360416</v>
       </c>
       <c r="G76">
-        <v>0.07465552108263286</v>
+        <v>-0.1833495296726042</v>
       </c>
       <c r="H76">
-        <v>-0.09445183136316028</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1191678024316796</v>
+      </c>
+      <c r="I76">
+        <v>0.06753292236095081</v>
+      </c>
+      <c r="J76">
+        <v>-0.01429905679999705</v>
+      </c>
+      <c r="K76">
+        <v>0.00608271231686157</v>
+      </c>
+      <c r="L76">
+        <v>-0.006517820931439621</v>
+      </c>
+      <c r="M76">
+        <v>-0.05339404109498504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07436771632143445</v>
+        <v>-0.06874559998278343</v>
       </c>
       <c r="C77">
-        <v>0.02687123183788277</v>
+        <v>0.02684185008981654</v>
       </c>
       <c r="D77">
-        <v>-0.02575272410899353</v>
+        <v>-0.01923411832043275</v>
       </c>
       <c r="E77">
-        <v>-0.1623761833762123</v>
+        <v>-0.05035113917397703</v>
       </c>
       <c r="F77">
-        <v>0.06613322018588438</v>
+        <v>0.2559555721337148</v>
       </c>
       <c r="G77">
-        <v>-0.6842488510784032</v>
+        <v>0.1523554998006256</v>
       </c>
       <c r="H77">
-        <v>0.1566764605747348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.3386186761537532</v>
+      </c>
+      <c r="I77">
+        <v>0.02554079118937471</v>
+      </c>
+      <c r="J77">
+        <v>0.01554025485819381</v>
+      </c>
+      <c r="K77">
+        <v>0.4651806559814439</v>
+      </c>
+      <c r="L77">
+        <v>-0.5173007551073087</v>
+      </c>
+      <c r="M77">
+        <v>-0.07477004932746273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1525823464480862</v>
+        <v>-0.1580411812190512</v>
       </c>
       <c r="C78">
-        <v>0.09064038669360955</v>
+        <v>0.1309683643765692</v>
       </c>
       <c r="D78">
-        <v>-0.03087585890095133</v>
+        <v>0.18000955256604</v>
       </c>
       <c r="E78">
-        <v>-0.1997117764052179</v>
+        <v>-0.1146916299939436</v>
       </c>
       <c r="F78">
-        <v>0.007285806584473459</v>
+        <v>0.1123649740421161</v>
       </c>
       <c r="G78">
-        <v>-0.02268350647991588</v>
+        <v>0.3072544722289801</v>
       </c>
       <c r="H78">
-        <v>0.08138158130170012</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.3769896328022183</v>
+      </c>
+      <c r="I78">
+        <v>0.3677708559782903</v>
+      </c>
+      <c r="J78">
+        <v>0.4505705676010053</v>
+      </c>
+      <c r="K78">
+        <v>0.3694578381370076</v>
+      </c>
+      <c r="L78">
+        <v>0.1986914495978736</v>
+      </c>
+      <c r="M78">
+        <v>-0.1370038247724893</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1424916608166169</v>
+        <v>-0.1350781301944866</v>
       </c>
       <c r="C79">
-        <v>0.04641841546232547</v>
+        <v>0.07570231357601978</v>
       </c>
       <c r="D79">
-        <v>-0.01565531528854684</v>
+        <v>-0.00444301405638271</v>
       </c>
       <c r="E79">
-        <v>0.05386771424203017</v>
+        <v>-0.002477059971448846</v>
       </c>
       <c r="F79">
-        <v>-0.1574047785996878</v>
+        <v>0.01558012395825648</v>
       </c>
       <c r="G79">
-        <v>0.04401328883788776</v>
+        <v>-0.1617990152023086</v>
       </c>
       <c r="H79">
-        <v>-0.02604399839520945</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.08830469240380528</v>
+      </c>
+      <c r="I79">
+        <v>0.04503160529545592</v>
+      </c>
+      <c r="J79">
+        <v>-0.07544204890961939</v>
+      </c>
+      <c r="K79">
+        <v>0.008777551513165838</v>
+      </c>
+      <c r="L79">
+        <v>-0.03672771447487577</v>
+      </c>
+      <c r="M79">
+        <v>0.01627879094648212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02700567034408304</v>
+        <v>-0.05577984747951574</v>
       </c>
       <c r="C80">
-        <v>0.0009560519642061227</v>
+        <v>0.02565281531223783</v>
       </c>
       <c r="D80">
-        <v>-0.004234365448206714</v>
+        <v>-0.06836623375901246</v>
       </c>
       <c r="E80">
-        <v>0.04126019508042351</v>
+        <v>-0.01242554921422916</v>
       </c>
       <c r="F80">
-        <v>-0.007018402246122723</v>
+        <v>0.02766787209634272</v>
       </c>
       <c r="G80">
-        <v>-0.01736600021511015</v>
+        <v>0.02856866293537523</v>
       </c>
       <c r="H80">
-        <v>-0.04953480051782366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.006693719825938558</v>
+      </c>
+      <c r="I80">
+        <v>0.03243712275523866</v>
+      </c>
+      <c r="J80">
+        <v>0.009492092580987134</v>
+      </c>
+      <c r="K80">
+        <v>-0.1486272932801635</v>
+      </c>
+      <c r="L80">
+        <v>0.09385439772332252</v>
+      </c>
+      <c r="M80">
+        <v>0.02977978442759726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1094246040677497</v>
+        <v>-0.1188832150844112</v>
       </c>
       <c r="C81">
-        <v>0.04072053926183932</v>
+        <v>0.063396689703955</v>
       </c>
       <c r="D81">
-        <v>-0.02550719006785695</v>
+        <v>-0.003721690893343495</v>
       </c>
       <c r="E81">
-        <v>0.06570033956912638</v>
+        <v>-0.005962889532140595</v>
       </c>
       <c r="F81">
-        <v>-0.1185821964895536</v>
+        <v>0.02607253885534984</v>
       </c>
       <c r="G81">
-        <v>0.03138821910040483</v>
+        <v>-0.1217859137734457</v>
       </c>
       <c r="H81">
-        <v>-0.008740273811279106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.09474545616172493</v>
+      </c>
+      <c r="I81">
+        <v>0.01336862560794659</v>
+      </c>
+      <c r="J81">
+        <v>-0.02308372283817765</v>
+      </c>
+      <c r="K81">
+        <v>0.001159643489936496</v>
+      </c>
+      <c r="L81">
+        <v>-0.03674681783496271</v>
+      </c>
+      <c r="M81">
+        <v>0.1196547017427552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1139830834935923</v>
+        <v>-0.1233032537977814</v>
       </c>
       <c r="C82">
-        <v>0.02404154364430721</v>
+        <v>0.05224248286940665</v>
       </c>
       <c r="D82">
-        <v>-0.06157461429434058</v>
+        <v>-0.02806977249777986</v>
       </c>
       <c r="E82">
-        <v>0.08006097041159491</v>
+        <v>0.0001112230745309324</v>
       </c>
       <c r="F82">
-        <v>-0.2362141477717544</v>
+        <v>0.0005483659908931156</v>
       </c>
       <c r="G82">
-        <v>0.05504457700154623</v>
+        <v>-0.2322695148743873</v>
       </c>
       <c r="H82">
-        <v>-0.02302209286130274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1449179122486422</v>
+      </c>
+      <c r="I82">
+        <v>-0.02378811964357452</v>
+      </c>
+      <c r="J82">
+        <v>-0.02580561565453128</v>
+      </c>
+      <c r="K82">
+        <v>-0.04060615833825017</v>
+      </c>
+      <c r="L82">
+        <v>-0.0671631853086074</v>
+      </c>
+      <c r="M82">
+        <v>0.03763536554000401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.06323174429925754</v>
+        <v>-0.07269585874682051</v>
       </c>
       <c r="C83">
-        <v>0.04466891336134426</v>
+        <v>0.07025149969319883</v>
       </c>
       <c r="D83">
-        <v>-0.02649147787906939</v>
+        <v>-0.02143306164856296</v>
       </c>
       <c r="E83">
-        <v>-0.0009571174053162309</v>
+        <v>-0.005589771015956055</v>
       </c>
       <c r="F83">
-        <v>0.05229664581938626</v>
+        <v>0.01456957654385994</v>
       </c>
       <c r="G83">
-        <v>-0.01667382119999253</v>
+        <v>-0.03883553419615479</v>
       </c>
       <c r="H83">
-        <v>0.1009246409854596</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.0683133616741629</v>
+      </c>
+      <c r="I83">
+        <v>-0.01066246148528132</v>
+      </c>
+      <c r="J83">
+        <v>0.03518659333738163</v>
+      </c>
+      <c r="K83">
+        <v>-0.06688770509556298</v>
+      </c>
+      <c r="L83">
+        <v>-0.05543705469415389</v>
+      </c>
+      <c r="M83">
+        <v>-0.04012771622132549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.052889177986393</v>
+        <v>-0.056370903602243</v>
       </c>
       <c r="C84">
-        <v>0.04886116042602186</v>
+        <v>-0.01769794070888631</v>
       </c>
       <c r="D84">
-        <v>0.05829868211921923</v>
+        <v>-0.002034804509892481</v>
       </c>
       <c r="E84">
-        <v>-0.007271189368489594</v>
+        <v>0.01986520089324513</v>
       </c>
       <c r="F84">
-        <v>-0.03203933476366361</v>
+        <v>0.02194618098738831</v>
       </c>
       <c r="G84">
-        <v>0.1497725234938825</v>
+        <v>0.1858149147522124</v>
       </c>
       <c r="H84">
-        <v>0.0127584355110002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1455381399268051</v>
+      </c>
+      <c r="I84">
+        <v>-0.2335696784008429</v>
+      </c>
+      <c r="J84">
+        <v>0.00315416814852635</v>
+      </c>
+      <c r="K84">
+        <v>-0.1925452192868362</v>
+      </c>
+      <c r="L84">
+        <v>0.08447175683234884</v>
+      </c>
+      <c r="M84">
+        <v>-0.4866713223271811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.09060364288939296</v>
+        <v>-0.1099213709033745</v>
       </c>
       <c r="C85">
-        <v>0.03889799586540542</v>
+        <v>0.05084212626171427</v>
       </c>
       <c r="D85">
-        <v>-0.05575090748488676</v>
+        <v>-0.01325169170592084</v>
       </c>
       <c r="E85">
-        <v>0.03332139429656669</v>
+        <v>-0.03311062704202841</v>
       </c>
       <c r="F85">
-        <v>-0.187630380144651</v>
+        <v>0.01653364421473422</v>
       </c>
       <c r="G85">
-        <v>0.01006817107280512</v>
+        <v>-0.1672119425660868</v>
       </c>
       <c r="H85">
-        <v>-0.0648954528107766</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.09054377420604982</v>
+      </c>
+      <c r="I85">
+        <v>0.04927810312508537</v>
+      </c>
+      <c r="J85">
+        <v>-0.08165746403666869</v>
+      </c>
+      <c r="K85">
+        <v>0.02974183186063732</v>
+      </c>
+      <c r="L85">
+        <v>-0.03352319613055551</v>
+      </c>
+      <c r="M85">
+        <v>0.04341422437149697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.04588331303814773</v>
+        <v>-0.07385886597404515</v>
       </c>
       <c r="C86">
-        <v>0.04423259590253206</v>
+        <v>0.02736819594097771</v>
       </c>
       <c r="D86">
-        <v>-0.03436247255922478</v>
+        <v>0.02037639571770561</v>
       </c>
       <c r="E86">
-        <v>-0.03905233297116328</v>
+        <v>-0.1271282937313138</v>
       </c>
       <c r="F86">
-        <v>0.005827468161668498</v>
+        <v>0.03720091839014304</v>
       </c>
       <c r="G86">
-        <v>-0.06610462070454858</v>
+        <v>0.4345499973893855</v>
       </c>
       <c r="H86">
-        <v>-0.08344880147888797</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4672351480923144</v>
+      </c>
+      <c r="I86">
+        <v>-0.2524329925817718</v>
+      </c>
+      <c r="J86">
+        <v>-0.5340113508365867</v>
+      </c>
+      <c r="K86">
+        <v>0.04113150160137431</v>
+      </c>
+      <c r="L86">
+        <v>-0.03134380225446233</v>
+      </c>
+      <c r="M86">
+        <v>-0.03296962215921084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.08976538735815857</v>
+        <v>-0.1079517069133026</v>
       </c>
       <c r="C87">
-        <v>0.05604462605702679</v>
+        <v>0.07133658024154083</v>
       </c>
       <c r="D87">
-        <v>0.00193045583479708</v>
+        <v>0.02879817650937968</v>
       </c>
       <c r="E87">
-        <v>-0.06317364577838454</v>
+        <v>-0.03507750145013032</v>
       </c>
       <c r="F87">
-        <v>0.0003481213723522136</v>
+        <v>0.0957605208589575</v>
       </c>
       <c r="G87">
-        <v>-0.1180910026953953</v>
+        <v>0.09027566576938043</v>
       </c>
       <c r="H87">
-        <v>0.07484150511855871</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1042769782695931</v>
+      </c>
+      <c r="I87">
+        <v>-0.02300139732563944</v>
+      </c>
+      <c r="J87">
+        <v>0.01711264015874566</v>
+      </c>
+      <c r="K87">
+        <v>0.002435292828084832</v>
+      </c>
+      <c r="L87">
+        <v>-0.2134754979515956</v>
+      </c>
+      <c r="M87">
+        <v>0.05749250931620098</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.05692775127257092</v>
+        <v>-0.05812954952927983</v>
       </c>
       <c r="C88">
-        <v>0.04226254895774806</v>
+        <v>0.05233853671771117</v>
       </c>
       <c r="D88">
-        <v>-0.02415684238939523</v>
+        <v>-0.02916718404157076</v>
       </c>
       <c r="E88">
-        <v>-0.009388923921621165</v>
+        <v>-0.003257448610747776</v>
       </c>
       <c r="F88">
-        <v>0.008960806298988301</v>
+        <v>0.03743684236053255</v>
       </c>
       <c r="G88">
-        <v>-0.0285469354185733</v>
+        <v>-0.02654372577469562</v>
       </c>
       <c r="H88">
-        <v>0.0273945374375367</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.01860716620898474</v>
+      </c>
+      <c r="I88">
+        <v>-0.02926693181981646</v>
+      </c>
+      <c r="J88">
+        <v>0.01687203682182668</v>
+      </c>
+      <c r="K88">
+        <v>-0.04952591389254829</v>
+      </c>
+      <c r="L88">
+        <v>0.03880811602586398</v>
+      </c>
+      <c r="M88">
+        <v>0.06476817191166485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1574001059070345</v>
+        <v>-0.210261008653867</v>
       </c>
       <c r="C89">
-        <v>-0.3317542226444284</v>
+        <v>-0.3573701154394091</v>
       </c>
       <c r="D89">
-        <v>-0.06994994789940778</v>
+        <v>0.04523128859305038</v>
       </c>
       <c r="E89">
-        <v>-0.09289986826110959</v>
+        <v>-0.08251054661993387</v>
       </c>
       <c r="F89">
-        <v>0.05258280641713398</v>
+        <v>0.006779570903909721</v>
       </c>
       <c r="G89">
-        <v>-0.03631134982408366</v>
+        <v>0.02944922807458747</v>
       </c>
       <c r="H89">
-        <v>-0.005716971054838151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.0006289239536528542</v>
+      </c>
+      <c r="I89">
+        <v>-0.03880729077736126</v>
+      </c>
+      <c r="J89">
+        <v>0.07300569511230362</v>
+      </c>
+      <c r="K89">
+        <v>-0.01113090912460677</v>
+      </c>
+      <c r="L89">
+        <v>0.01770954011408811</v>
+      </c>
+      <c r="M89">
+        <v>0.0980757024493618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1213706370944894</v>
+        <v>-0.1543017589554592</v>
       </c>
       <c r="C90">
-        <v>-0.2813668090938826</v>
+        <v>-0.2700198911782783</v>
       </c>
       <c r="D90">
-        <v>-0.006320217606437461</v>
+        <v>-0.007681172656421447</v>
       </c>
       <c r="E90">
-        <v>-0.06523298967113475</v>
+        <v>-0.01326533403637853</v>
       </c>
       <c r="F90">
-        <v>0.03331315729680246</v>
+        <v>0.03779060448316499</v>
       </c>
       <c r="G90">
-        <v>-0.1009898900360206</v>
+        <v>0.01217885163171886</v>
       </c>
       <c r="H90">
-        <v>0.03517342984335886</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05753938573040523</v>
+      </c>
+      <c r="I90">
+        <v>-0.04066257837387928</v>
+      </c>
+      <c r="J90">
+        <v>-0.009114182084504648</v>
+      </c>
+      <c r="K90">
+        <v>0.01135512896494168</v>
+      </c>
+      <c r="L90">
+        <v>0.03208135795559156</v>
+      </c>
+      <c r="M90">
+        <v>-0.05715747741223106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.0797079604930695</v>
+        <v>-0.07843539817776621</v>
       </c>
       <c r="C91">
-        <v>0.01972563441556914</v>
+        <v>0.05273380210698188</v>
       </c>
       <c r="D91">
-        <v>-0.01418843373849541</v>
+        <v>0.003194321150298387</v>
       </c>
       <c r="E91">
-        <v>-0.003764589206383963</v>
+        <v>-0.01060272920248659</v>
       </c>
       <c r="F91">
-        <v>-0.09587189482707974</v>
+        <v>-0.005158684557360115</v>
       </c>
       <c r="G91">
-        <v>0.06800895759718809</v>
+        <v>-0.09291239965195069</v>
       </c>
       <c r="H91">
-        <v>-0.03239440852851525</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.07038293508318545</v>
+      </c>
+      <c r="I91">
+        <v>0.01038262400645052</v>
+      </c>
+      <c r="J91">
+        <v>-0.001760919876504297</v>
+      </c>
+      <c r="K91">
+        <v>0.01547966380107871</v>
+      </c>
+      <c r="L91">
+        <v>0.01330065822532926</v>
+      </c>
+      <c r="M91">
+        <v>-0.006949273775549536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1324415607913828</v>
+        <v>-0.1736218445228582</v>
       </c>
       <c r="C92">
-        <v>-0.3092295030394621</v>
+        <v>-0.3040025647663822</v>
       </c>
       <c r="D92">
-        <v>-0.05112715239062748</v>
+        <v>0.03382431673082534</v>
       </c>
       <c r="E92">
-        <v>-0.0490364507403616</v>
+        <v>-0.0459989100979129</v>
       </c>
       <c r="F92">
-        <v>0.04542088935287</v>
+        <v>0.04168885354163693</v>
       </c>
       <c r="G92">
-        <v>0.09009387069178226</v>
+        <v>-0.02536706387344347</v>
       </c>
       <c r="H92">
-        <v>-0.01707024941748403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.01709710493165092</v>
+      </c>
+      <c r="I92">
+        <v>-0.01645979513578296</v>
+      </c>
+      <c r="J92">
+        <v>0.03786184718230744</v>
+      </c>
+      <c r="K92">
+        <v>-0.02808799128762574</v>
+      </c>
+      <c r="L92">
+        <v>0.04603414360003475</v>
+      </c>
+      <c r="M92">
+        <v>0.06918508761877154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1324290057985092</v>
+        <v>-0.1648123847643604</v>
       </c>
       <c r="C93">
-        <v>-0.2599698109551253</v>
+        <v>-0.2852556411618887</v>
       </c>
       <c r="D93">
-        <v>-0.03140773631152614</v>
+        <v>-0.02908834411940643</v>
       </c>
       <c r="E93">
-        <v>-0.02347353879575399</v>
+        <v>-0.008764980329860584</v>
       </c>
       <c r="F93">
-        <v>0.03149034957906192</v>
+        <v>0.01253542243047196</v>
       </c>
       <c r="G93">
-        <v>-0.0192299556273881</v>
+        <v>0.01861551497486599</v>
       </c>
       <c r="H93">
-        <v>0.0122632676621574</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01102717777150971</v>
+      </c>
+      <c r="I93">
+        <v>-0.01210384440168089</v>
+      </c>
+      <c r="J93">
+        <v>-0.02882699109142687</v>
+      </c>
+      <c r="K93">
+        <v>-0.03422373715383956</v>
+      </c>
+      <c r="L93">
+        <v>-0.00339511626785817</v>
+      </c>
+      <c r="M93">
+        <v>-0.02713253741722396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.09350086545678621</v>
+        <v>-0.1130975512035911</v>
       </c>
       <c r="C94">
-        <v>0.05347225516096348</v>
+        <v>0.07383497498919267</v>
       </c>
       <c r="D94">
-        <v>-0.01105375807472762</v>
+        <v>0.01667497012319984</v>
       </c>
       <c r="E94">
-        <v>0.000127848146019389</v>
+        <v>-0.01512215740838331</v>
       </c>
       <c r="F94">
-        <v>-0.1572737222552694</v>
+        <v>-0.01752297651805217</v>
       </c>
       <c r="G94">
-        <v>0.09237971326039804</v>
+        <v>-0.1384187964445147</v>
       </c>
       <c r="H94">
-        <v>-0.06888877481342617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.06553170732445332</v>
+      </c>
+      <c r="I94">
+        <v>0.03661312053768704</v>
+      </c>
+      <c r="J94">
+        <v>-0.01702607350274916</v>
+      </c>
+      <c r="K94">
+        <v>0.005298656474963987</v>
+      </c>
+      <c r="L94">
+        <v>0.04693259975720882</v>
+      </c>
+      <c r="M94">
+        <v>0.006706718633989156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1004211544708206</v>
+        <v>-0.1161590012287474</v>
       </c>
       <c r="C95">
-        <v>0.06720894314154299</v>
+        <v>0.07832623403037886</v>
       </c>
       <c r="D95">
-        <v>-0.06804195025209177</v>
+        <v>0.01956682626252225</v>
       </c>
       <c r="E95">
-        <v>-0.04247252900934861</v>
+        <v>-0.06853297253129703</v>
       </c>
       <c r="F95">
-        <v>0.06058547875520955</v>
+        <v>0.05940884560894261</v>
       </c>
       <c r="G95">
-        <v>-0.003121612469510301</v>
+        <v>0.2430894131906293</v>
       </c>
       <c r="H95">
-        <v>0.01491253504550408</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.06133177147328958</v>
+      </c>
+      <c r="I95">
+        <v>-0.04694568075969796</v>
+      </c>
+      <c r="J95">
+        <v>-0.07924408468946746</v>
+      </c>
+      <c r="K95">
+        <v>-0.1148916485919427</v>
+      </c>
+      <c r="L95">
+        <v>0.02448230964952433</v>
+      </c>
+      <c r="M95">
+        <v>0.4956515899375699</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0004974276964623609</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0003234223126041086</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0009033612594204172</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001328049881282602</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0007654538679309559</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.002168763825928181</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.001376430913534499</v>
+      </c>
+      <c r="I96">
+        <v>-0.001384316666202767</v>
+      </c>
+      <c r="J96">
+        <v>-0.002157152356867716</v>
+      </c>
+      <c r="K96">
+        <v>-0.0008870992942215705</v>
+      </c>
+      <c r="L96">
+        <v>0.001373972878894783</v>
+      </c>
+      <c r="M96">
+        <v>-0.006214951916427764</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2321216624060208</v>
+        <v>-0.1603875390808686</v>
       </c>
       <c r="C97">
-        <v>-0.01870624698605373</v>
+        <v>0.001494186948214723</v>
       </c>
       <c r="D97">
-        <v>0.8907571334729876</v>
+        <v>0.09210245009672785</v>
       </c>
       <c r="E97">
-        <v>0.1138255724962119</v>
+        <v>0.9254515299022164</v>
       </c>
       <c r="F97">
-        <v>0.1120419435883426</v>
+        <v>0.02022830752712621</v>
       </c>
       <c r="G97">
-        <v>-0.04321209549994103</v>
+        <v>0.1396905750216303</v>
       </c>
       <c r="H97">
-        <v>0.01624183066120496</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.05261882525592538</v>
+      </c>
+      <c r="I97">
+        <v>-0.06074928004834071</v>
+      </c>
+      <c r="J97">
+        <v>0.004043730021968368</v>
+      </c>
+      <c r="K97">
+        <v>0.04984761964989744</v>
+      </c>
+      <c r="L97">
+        <v>-0.005721499004510657</v>
+      </c>
+      <c r="M97">
+        <v>0.03622856093910611</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2937566232065079</v>
+        <v>-0.2558437522103136</v>
       </c>
       <c r="C98">
-        <v>0.1115971210662565</v>
+        <v>0.1184193548112322</v>
       </c>
       <c r="D98">
-        <v>-0.136395894858531</v>
+        <v>0.009140194500551403</v>
       </c>
       <c r="E98">
-        <v>0.2613086008994268</v>
+        <v>-0.0097992472659706</v>
       </c>
       <c r="F98">
-        <v>0.475788369597751</v>
+        <v>-0.4784605625968621</v>
       </c>
       <c r="G98">
-        <v>0.3800865900732168</v>
+        <v>0.1901739100306845</v>
       </c>
       <c r="H98">
-        <v>0.3494895314434607</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.03187285529563651</v>
+      </c>
+      <c r="I98">
+        <v>0.03152535666112803</v>
+      </c>
+      <c r="J98">
+        <v>0.389665243393674</v>
+      </c>
+      <c r="K98">
+        <v>-0.3571460339734048</v>
+      </c>
+      <c r="L98">
+        <v>-0.4089172860143927</v>
+      </c>
+      <c r="M98">
+        <v>-0.04481978205266902</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.06601577827416044</v>
+        <v>-0.06792515515578765</v>
       </c>
       <c r="C99">
-        <v>0.04770375422555994</v>
+        <v>0.0561353228125654</v>
       </c>
       <c r="D99">
-        <v>-0.02964430888088758</v>
+        <v>0.009134234458472163</v>
       </c>
       <c r="E99">
-        <v>0.00214452208483176</v>
+        <v>-0.03207927231713568</v>
       </c>
       <c r="F99">
-        <v>0.01855620862366361</v>
+        <v>-0.01593448583519756</v>
       </c>
       <c r="G99">
-        <v>0.01605841242567395</v>
+        <v>-0.02018518364627838</v>
       </c>
       <c r="H99">
-        <v>0.08540657871486122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.01272634600100317</v>
+      </c>
+      <c r="I99">
+        <v>-0.0153564805488198</v>
+      </c>
+      <c r="J99">
+        <v>0.0261482242761513</v>
+      </c>
+      <c r="K99">
+        <v>0.05052134787408683</v>
+      </c>
+      <c r="L99">
+        <v>-0.03478775845437135</v>
+      </c>
+      <c r="M99">
+        <v>0.07125026013459136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05368333976874651</v>
+        <v>-0.03995143392318121</v>
       </c>
       <c r="C101">
-        <v>0.01827135255160035</v>
+        <v>0.02955817827777941</v>
       </c>
       <c r="D101">
-        <v>-0.01244571340531755</v>
+        <v>-0.003336475689805878</v>
       </c>
       <c r="E101">
-        <v>-0.02668026304424269</v>
+        <v>-0.02160389934943279</v>
       </c>
       <c r="F101">
-        <v>-0.004893139189511725</v>
+        <v>0.05521006003351894</v>
       </c>
       <c r="G101">
-        <v>0.01001599761372144</v>
+        <v>-0.01289973666187656</v>
       </c>
       <c r="H101">
-        <v>-0.005300664691185598</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01861721131360219</v>
+      </c>
+      <c r="I101">
+        <v>0.01663173769929615</v>
+      </c>
+      <c r="J101">
+        <v>-0.005257188382982688</v>
+      </c>
+      <c r="K101">
+        <v>-0.07742578969900329</v>
+      </c>
+      <c r="L101">
+        <v>-0.01140068849552085</v>
+      </c>
+      <c r="M101">
+        <v>0.01722915704916698</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
